--- a/team_specific_matrix/UConn_B.xlsx
+++ b/team_specific_matrix/UConn_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1888412017167382</v>
+        <v>0.1853146853146853</v>
       </c>
       <c r="C2">
-        <v>0.5622317596566524</v>
+        <v>0.5664335664335665</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.004291845493562232</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1158798283261803</v>
+        <v>0.1118881118881119</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1287553648068669</v>
+        <v>0.1293706293706294</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007352941176470588</v>
+        <v>0.01197604790419162</v>
       </c>
       <c r="C3">
-        <v>0.04411764705882353</v>
+        <v>0.03592814371257485</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02941176470588235</v>
+        <v>0.02994011976047904</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7352941176470589</v>
+        <v>0.7245508982035929</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1838235294117647</v>
+        <v>0.1976047904191617</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1176470588235294</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7058823529411765</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1764705882352941</v>
+        <v>0.1707317073170732</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07142857142857142</v>
+        <v>0.065</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01298701298701299</v>
+        <v>0.01</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04545454545454546</v>
+        <v>0.06</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2662337662337662</v>
+        <v>0.27</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.006493506493506494</v>
+        <v>0.015</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1298701298701299</v>
+        <v>0.12</v>
       </c>
       <c r="R6">
-        <v>0.07792207792207792</v>
+        <v>0.08</v>
       </c>
       <c r="S6">
-        <v>0.3896103896103896</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1075949367088608</v>
+        <v>0.1100478468899522</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02531645569620253</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.01265822784810127</v>
+        <v>0.01435406698564593</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1645569620253164</v>
+        <v>0.1626794258373206</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.006329113924050633</v>
+        <v>0.009569377990430622</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2088607594936709</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="R7">
-        <v>0.06962025316455696</v>
+        <v>0.05741626794258373</v>
       </c>
       <c r="S7">
-        <v>0.4050632911392405</v>
+        <v>0.4114832535885167</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09973045822102426</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02425876010781671</v>
+        <v>0.02345415778251599</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07547169811320754</v>
+        <v>0.07036247334754797</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1185983827493261</v>
+        <v>0.1087420042643923</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01078167115902965</v>
+        <v>0.01066098081023454</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1752021563342318</v>
+        <v>0.1769722814498934</v>
       </c>
       <c r="R8">
-        <v>0.08894878706199461</v>
+        <v>0.09168443496801706</v>
       </c>
       <c r="S8">
-        <v>0.4070080862533693</v>
+        <v>0.4136460554371002</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1329787234042553</v>
+        <v>0.1339285714285714</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01595744680851064</v>
+        <v>0.01339285714285714</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0425531914893617</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09042553191489362</v>
+        <v>0.09375</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02659574468085106</v>
+        <v>0.03125</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.175531914893617</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="R9">
-        <v>0.06914893617021277</v>
+        <v>0.05803571428571429</v>
       </c>
       <c r="S9">
-        <v>0.4468085106382979</v>
+        <v>0.4553571428571428</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1192214111922141</v>
+        <v>0.1150793650793651</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0194647201946472</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08029197080291971</v>
+        <v>0.0873015873015873</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1204379562043796</v>
+        <v>0.1200396825396825</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02068126520681265</v>
+        <v>0.01984126984126984</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1885644768856448</v>
+        <v>0.185515873015873</v>
       </c>
       <c r="R10">
-        <v>0.06447688564476886</v>
+        <v>0.06746031746031746</v>
       </c>
       <c r="S10">
-        <v>0.3868613138686132</v>
+        <v>0.3839285714285715</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1769911504424779</v>
+        <v>0.1717171717171717</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08849557522123894</v>
+        <v>0.07744107744107744</v>
       </c>
       <c r="K11">
-        <v>0.2389380530973451</v>
+        <v>0.228956228956229</v>
       </c>
       <c r="L11">
-        <v>0.4911504424778761</v>
+        <v>0.5117845117845118</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.004424778761061947</v>
+        <v>0.0101010101010101</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8050847457627118</v>
+        <v>0.7888198757763976</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1440677966101695</v>
+        <v>0.15527950310559</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.05084745762711865</v>
+        <v>0.04968944099378882</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.006211180124223602</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02325581395348837</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="G13">
-        <v>0.6976744186046512</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2325581395348837</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04651162790697674</v>
+        <v>0.07272727272727272</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01764705882352941</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1764705882352941</v>
+        <v>0.1747572815533981</v>
       </c>
       <c r="I15">
-        <v>0.08823529411764706</v>
+        <v>0.09223300970873786</v>
       </c>
       <c r="J15">
-        <v>0.3235294117647059</v>
+        <v>0.3009708737864077</v>
       </c>
       <c r="K15">
-        <v>0.07058823529411765</v>
+        <v>0.07281553398058252</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01176470588235294</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04705882352941176</v>
+        <v>0.04368932038834952</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2647058823529412</v>
+        <v>0.2864077669902912</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02027027027027027</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1756756756756757</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="I16">
-        <v>0.1081081081081081</v>
+        <v>0.09444444444444444</v>
       </c>
       <c r="J16">
-        <v>0.3513513513513514</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="K16">
-        <v>0.1351351351351351</v>
+        <v>0.1277777777777778</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02027027027027027</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02027027027027027</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1689189189189189</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01661129568106312</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1893687707641196</v>
+        <v>0.2043010752688172</v>
       </c>
       <c r="I17">
-        <v>0.1661129568106312</v>
+        <v>0.1478494623655914</v>
       </c>
       <c r="J17">
-        <v>0.3488372093023256</v>
+        <v>0.3360215053763441</v>
       </c>
       <c r="K17">
-        <v>0.07973421926910298</v>
+        <v>0.07795698924731183</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.026578073089701</v>
+        <v>0.02419354838709677</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04983388704318937</v>
+        <v>0.0564516129032258</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1229235880398671</v>
+        <v>0.1317204301075269</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03278688524590164</v>
+        <v>0.03289473684210526</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.180327868852459</v>
+        <v>0.1907894736842105</v>
       </c>
       <c r="I18">
-        <v>0.139344262295082</v>
+        <v>0.1184210526315789</v>
       </c>
       <c r="J18">
-        <v>0.2950819672131147</v>
+        <v>0.3026315789473684</v>
       </c>
       <c r="K18">
-        <v>0.1065573770491803</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02459016393442623</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="O18">
-        <v>0.09016393442622951</v>
+        <v>0.07236842105263158</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1311475409836066</v>
+        <v>0.1447368421052632</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01207243460764587</v>
+        <v>0.01189532117367169</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2394366197183098</v>
+        <v>0.2363203806502776</v>
       </c>
       <c r="I19">
-        <v>0.09054325955734406</v>
+        <v>0.09199048374306107</v>
       </c>
       <c r="J19">
-        <v>0.3128772635814889</v>
+        <v>0.3037272006344171</v>
       </c>
       <c r="K19">
-        <v>0.1036217303822938</v>
+        <v>0.1149881046788263</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02716297786720322</v>
+        <v>0.02934179222839017</v>
       </c>
       <c r="N19">
-        <v>0.001006036217303823</v>
+        <v>0.0007930214115781126</v>
       </c>
       <c r="O19">
-        <v>0.08048289738430583</v>
+        <v>0.07375099127676447</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1327967806841046</v>
+        <v>0.1371927042030135</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UConn_B.xlsx
+++ b/team_specific_matrix/UConn_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1853146853146853</v>
+        <v>0.1815068493150685</v>
       </c>
       <c r="C2">
-        <v>0.5664335664335665</v>
+        <v>0.571917808219178</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006993006993006993</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1118881118881119</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1293706293706294</v>
+        <v>0.1301369863013699</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01197604790419162</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="C3">
-        <v>0.03592814371257485</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02994011976047904</v>
+        <v>0.02906976744186046</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7245508982035929</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1976047904191617</v>
+        <v>0.2034883720930233</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0975609756097561</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7317073170731707</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1707317073170732</v>
+        <v>0.186046511627907</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.065</v>
+        <v>0.06796116504854369</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06</v>
+        <v>0.05825242718446602</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.27</v>
+        <v>0.2621359223300971</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.015</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.12</v>
+        <v>0.1213592233009709</v>
       </c>
       <c r="R6">
-        <v>0.08</v>
+        <v>0.07766990291262135</v>
       </c>
       <c r="S6">
-        <v>0.38</v>
+        <v>0.3883495145631068</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1100478468899522</v>
+        <v>0.1045454545454545</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02392344497607655</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.01435406698564593</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1626794258373206</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.009569377990430622</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2105263157894737</v>
+        <v>0.2045454545454546</v>
       </c>
       <c r="R7">
-        <v>0.05741626794258373</v>
+        <v>0.05909090909090909</v>
       </c>
       <c r="S7">
-        <v>0.4114832535885167</v>
+        <v>0.4181818181818182</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1044776119402985</v>
+        <v>0.103950103950104</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02345415778251599</v>
+        <v>0.02494802494802495</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07036247334754797</v>
+        <v>0.06860706860706861</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1087420042643923</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01066098081023454</v>
+        <v>0.0103950103950104</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1769722814498934</v>
+        <v>0.1767151767151767</v>
       </c>
       <c r="R8">
-        <v>0.09168443496801706</v>
+        <v>0.0893970893970894</v>
       </c>
       <c r="S8">
-        <v>0.4136460554371002</v>
+        <v>0.4178794178794179</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1339285714285714</v>
+        <v>0.1367521367521368</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01339285714285714</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03571428571428571</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09375</v>
+        <v>0.09401709401709402</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03125</v>
+        <v>0.02991452991452992</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1785714285714286</v>
+        <v>0.1752136752136752</v>
       </c>
       <c r="R9">
-        <v>0.05803571428571429</v>
+        <v>0.05982905982905983</v>
       </c>
       <c r="S9">
-        <v>0.4553571428571428</v>
+        <v>0.452991452991453</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1150793650793651</v>
+        <v>0.1129186602870813</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02083333333333333</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0873015873015873</v>
+        <v>0.0861244019138756</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1200396825396825</v>
+        <v>0.1196172248803828</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01984126984126984</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.185515873015873</v>
+        <v>0.1894736842105263</v>
       </c>
       <c r="R10">
-        <v>0.06746031746031746</v>
+        <v>0.0660287081339713</v>
       </c>
       <c r="S10">
-        <v>0.3839285714285715</v>
+        <v>0.3856459330143541</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1717171717171717</v>
+        <v>0.1715210355987055</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07744107744107744</v>
+        <v>0.07443365695792881</v>
       </c>
       <c r="K11">
-        <v>0.228956228956229</v>
+        <v>0.226537216828479</v>
       </c>
       <c r="L11">
-        <v>0.5117845117845118</v>
+        <v>0.517799352750809</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0101010101010101</v>
+        <v>0.009708737864077669</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7888198757763976</v>
+        <v>0.7988165680473372</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.15527950310559</v>
+        <v>0.1479289940828402</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.04968944099378882</v>
+        <v>0.04733727810650887</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.006211180124223602</v>
+        <v>0.005917159763313609</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.01818181818181818</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="G13">
-        <v>0.6727272727272727</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2363636363636364</v>
+        <v>0.2280701754385965</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07272727272727272</v>
+        <v>0.07017543859649122</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01941747572815534</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1747572815533981</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="I15">
-        <v>0.09223300970873786</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="J15">
-        <v>0.3009708737864077</v>
+        <v>0.2980769230769231</v>
       </c>
       <c r="K15">
-        <v>0.07281553398058252</v>
+        <v>0.07211538461538461</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009708737864077669</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04368932038834952</v>
+        <v>0.04326923076923077</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2864077669902912</v>
+        <v>0.2884615384615384</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02777777777777778</v>
+        <v>0.02717391304347826</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1777777777777778</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="I16">
-        <v>0.09444444444444444</v>
+        <v>0.09782608695652174</v>
       </c>
       <c r="J16">
-        <v>0.3444444444444444</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="K16">
-        <v>0.1277777777777778</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01666666666666667</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02777777777777778</v>
+        <v>0.02717391304347826</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1833333333333333</v>
+        <v>0.1793478260869565</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02150537634408602</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2043010752688172</v>
+        <v>0.2036082474226804</v>
       </c>
       <c r="I17">
-        <v>0.1478494623655914</v>
+        <v>0.1443298969072165</v>
       </c>
       <c r="J17">
-        <v>0.3360215053763441</v>
+        <v>0.3402061855670103</v>
       </c>
       <c r="K17">
-        <v>0.07795698924731183</v>
+        <v>0.07731958762886598</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02419354838709677</v>
+        <v>0.02577319587628866</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0564516129032258</v>
+        <v>0.05412371134020619</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1317204301075269</v>
+        <v>0.134020618556701</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03289473684210526</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1907894736842105</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="I18">
-        <v>0.1184210526315789</v>
+        <v>0.1225806451612903</v>
       </c>
       <c r="J18">
-        <v>0.3026315789473684</v>
+        <v>0.2967741935483871</v>
       </c>
       <c r="K18">
-        <v>0.1052631578947368</v>
+        <v>0.1096774193548387</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02631578947368421</v>
+        <v>0.02580645161290323</v>
       </c>
       <c r="N18">
-        <v>0.006578947368421052</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="O18">
-        <v>0.07236842105263158</v>
+        <v>0.07096774193548387</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1447368421052632</v>
+        <v>0.1419354838709677</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01189532117367169</v>
+        <v>0.01145912910618793</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2363203806502776</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="I19">
-        <v>0.09199048374306107</v>
+        <v>0.0932009167303285</v>
       </c>
       <c r="J19">
-        <v>0.3037272006344171</v>
+        <v>0.3086325439266616</v>
       </c>
       <c r="K19">
-        <v>0.1149881046788263</v>
+        <v>0.1161191749427044</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02934179222839017</v>
+        <v>0.02902979373567609</v>
       </c>
       <c r="N19">
-        <v>0.0007930214115781126</v>
+        <v>0.0007639419404125286</v>
       </c>
       <c r="O19">
-        <v>0.07375099127676447</v>
+        <v>0.0718105423987777</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1371927042030135</v>
+        <v>0.1352177234530176</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UConn_B.xlsx
+++ b/team_specific_matrix/UConn_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1815068493150685</v>
+        <v>0.1768488745980707</v>
       </c>
       <c r="C2">
-        <v>0.571917808219178</v>
+        <v>0.5787781350482315</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.00684931506849315</v>
+        <v>0.006430868167202572</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1095890410958904</v>
+        <v>0.1093247588424437</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1301369863013699</v>
+        <v>0.1286173633440514</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01162790697674419</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="C3">
-        <v>0.03488372093023256</v>
+        <v>0.03243243243243243</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02906976744186046</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7209302325581395</v>
+        <v>0.7081081081081081</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2034883720930233</v>
+        <v>0.2162162162162162</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09302325581395349</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7209302325581395</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.186046511627907</v>
+        <v>0.1739130434782609</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06796116504854369</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009708737864077669</v>
+        <v>0.01363636363636364</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05825242718446602</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2621359223300971</v>
+        <v>0.2590909090909091</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01456310679611651</v>
+        <v>0.01363636363636364</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1213592233009709</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="R6">
-        <v>0.07766990291262135</v>
+        <v>0.08636363636363636</v>
       </c>
       <c r="S6">
-        <v>0.3883495145631068</v>
+        <v>0.3772727272727273</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1045454545454545</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02272727272727273</v>
+        <v>0.02136752136752137</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02272727272727273</v>
+        <v>0.02136752136752137</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1590909090909091</v>
+        <v>0.1581196581196581</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.00909090909090909</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2045454545454546</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="R7">
-        <v>0.05909090909090909</v>
+        <v>0.05982905982905983</v>
       </c>
       <c r="S7">
-        <v>0.4181818181818182</v>
+        <v>0.4316239316239316</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.103950103950104</v>
+        <v>0.1019230769230769</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02494802494802495</v>
+        <v>0.02692307692307692</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06860706860706861</v>
+        <v>0.06923076923076923</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1081081081081081</v>
+        <v>0.1115384615384615</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0103950103950104</v>
+        <v>0.01346153846153846</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1767151767151767</v>
+        <v>0.1711538461538462</v>
       </c>
       <c r="R8">
-        <v>0.0893970893970894</v>
+        <v>0.08461538461538462</v>
       </c>
       <c r="S8">
-        <v>0.4178794178794179</v>
+        <v>0.4211538461538462</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1367521367521368</v>
+        <v>0.1383399209486166</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01282051282051282</v>
+        <v>0.01185770750988142</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03846153846153846</v>
+        <v>0.04743083003952569</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09401709401709402</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02991452991452992</v>
+        <v>0.02766798418972332</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1752136752136752</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="R9">
-        <v>0.05982905982905983</v>
+        <v>0.06719367588932806</v>
       </c>
       <c r="S9">
-        <v>0.452991452991453</v>
+        <v>0.4466403162055336</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1129186602870813</v>
+        <v>0.1136974037600716</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02105263157894737</v>
+        <v>0.01969561324977619</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0861244019138756</v>
+        <v>0.08415398388540735</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1196172248803828</v>
+        <v>0.1208594449418084</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01913875598086124</v>
+        <v>0.01790510295434199</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1894736842105263</v>
+        <v>0.1942703670546106</v>
       </c>
       <c r="R10">
-        <v>0.0660287081339713</v>
+        <v>0.06445837063563116</v>
       </c>
       <c r="S10">
-        <v>0.3856459330143541</v>
+        <v>0.3849597135183527</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1715210355987055</v>
+        <v>0.1701492537313433</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07443365695792881</v>
+        <v>0.08059701492537313</v>
       </c>
       <c r="K11">
-        <v>0.226537216828479</v>
+        <v>0.2328358208955224</v>
       </c>
       <c r="L11">
-        <v>0.517799352750809</v>
+        <v>0.5074626865671642</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009708737864077669</v>
+        <v>0.008955223880597015</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7988165680473372</v>
+        <v>0.8</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1479289940828402</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.04733727810650887</v>
+        <v>0.05</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.005917159763313609</v>
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="G13">
-        <v>0.6842105263157895</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2280701754385965</v>
+        <v>0.2241379310344828</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07017543859649122</v>
+        <v>0.06896551724137931</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01923076923076923</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1730769230769231</v>
+        <v>0.1727272727272727</v>
       </c>
       <c r="I15">
-        <v>0.09615384615384616</v>
+        <v>0.09545454545454546</v>
       </c>
       <c r="J15">
-        <v>0.2980769230769231</v>
+        <v>0.3136363636363637</v>
       </c>
       <c r="K15">
-        <v>0.07211538461538461</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009615384615384616</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04326923076923077</v>
+        <v>0.04090909090909091</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2884615384615384</v>
+        <v>0.2818181818181818</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02717391304347826</v>
+        <v>0.02551020408163265</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1739130434782609</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="I16">
-        <v>0.09782608695652174</v>
+        <v>0.09693877551020408</v>
       </c>
       <c r="J16">
-        <v>0.3478260869565217</v>
+        <v>0.3520408163265306</v>
       </c>
       <c r="K16">
-        <v>0.1304347826086956</v>
+        <v>0.1326530612244898</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01630434782608696</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02717391304347826</v>
+        <v>0.02551020408163265</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1793478260869565</v>
+        <v>0.173469387755102</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02061855670103093</v>
+        <v>0.01909307875894988</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2036082474226804</v>
+        <v>0.2004773269689737</v>
       </c>
       <c r="I17">
-        <v>0.1443298969072165</v>
+        <v>0.1384248210023866</v>
       </c>
       <c r="J17">
-        <v>0.3402061855670103</v>
+        <v>0.3460620525059666</v>
       </c>
       <c r="K17">
-        <v>0.07731958762886598</v>
+        <v>0.07875894988066826</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02577319587628866</v>
+        <v>0.02625298329355609</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05412371134020619</v>
+        <v>0.05727923627684964</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.134020618556701</v>
+        <v>0.1336515513126492</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03225806451612903</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1935483870967742</v>
+        <v>0.1987951807228916</v>
       </c>
       <c r="I18">
-        <v>0.1225806451612903</v>
+        <v>0.1265060240963855</v>
       </c>
       <c r="J18">
-        <v>0.2967741935483871</v>
+        <v>0.2891566265060241</v>
       </c>
       <c r="K18">
-        <v>0.1096774193548387</v>
+        <v>0.108433734939759</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02580645161290323</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="N18">
-        <v>0.006451612903225806</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="O18">
-        <v>0.07096774193548387</v>
+        <v>0.06626506024096386</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1419354838709677</v>
+        <v>0.1506024096385542</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01145912910618793</v>
+        <v>0.01205673758865248</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2337662337662338</v>
+        <v>0.2347517730496454</v>
       </c>
       <c r="I19">
-        <v>0.0932009167303285</v>
+        <v>0.09574468085106383</v>
       </c>
       <c r="J19">
-        <v>0.3086325439266616</v>
+        <v>0.3021276595744681</v>
       </c>
       <c r="K19">
-        <v>0.1161191749427044</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02902979373567609</v>
+        <v>0.02695035460992908</v>
       </c>
       <c r="N19">
-        <v>0.0007639419404125286</v>
+        <v>0.0007092198581560284</v>
       </c>
       <c r="O19">
-        <v>0.0718105423987777</v>
+        <v>0.07021276595744681</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1352177234530176</v>
+        <v>0.1404255319148936</v>
       </c>
     </row>
   </sheetData>
